--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB4581-ADDE-B94D-93F7-CF5823239C56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F46E3D-AB1B-4E47-9F44-B4094598478F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3240" windowWidth="20700" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>所属进程</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Router04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,23 +571,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -599,7 +611,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -623,7 +635,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -647,7 +659,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -667,7 +679,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -687,7 +699,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -707,7 +719,7 @@
         <v>30004</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -725,7 +737,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -743,7 +755,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -760,6 +772,58 @@
         <v>13</v>
       </c>
       <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -776,17 +840,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -809,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -837,7 +901,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -865,7 +929,7 @@
       <c r="K3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9">
         <v>200</v>
@@ -889,7 +953,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -903,7 +967,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -917,7 +981,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -931,7 +995,7 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -945,7 +1009,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -959,35 +1023,35 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
@@ -1006,9 +1070,9 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>300</v>
       </c>
@@ -1097,7 +1161,7 @@
         <v>30300</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>301</v>
       </c>
@@ -1117,7 +1181,7 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>302</v>
       </c>
@@ -1137,7 +1201,7 @@
         <v>30302</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>303</v>
       </c>
@@ -1157,7 +1221,7 @@
         <v>30303</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>304</v>
       </c>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F46E3D-AB1B-4E47-9F44-B4094598478F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20579A-715F-445E-871E-E54364265266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>所属进程</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Match</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -787,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -802,11 +806,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -819,9 +824,26 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20579A-715F-445E-871E-E54364265266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B433E9C-9ECF-40A0-B24B-FEAA85876560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>所属进程</t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>Map3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpbTest</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -809,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -824,11 +828,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -841,9 +846,26 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B433E9C-9ECF-40A0-B24B-FEAA85876560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5FC55E-6440-4F3D-B8AD-C3A7ECBD38C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>所属进程</t>
   </si>
@@ -155,6 +155,22 @@
   </si>
   <si>
     <t>zpbTest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -869,10 +885,78 @@
         <v>34</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5FC55E-6440-4F3D-B8AD-C3A7ECBD38C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA89BDD-9D59-4781-A4A3-26CF4DE16AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3096" yWindow="1968" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
     <sheet name="Router" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>所属进程</t>
   </si>
@@ -172,6 +183,17 @@
   <si>
     <t>Mail</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpbTestSnow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpbTestHome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpbTestDouble</t>
   </si>
 </sst>
 </file>
@@ -595,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E18"/>
+    <sheetView topLeftCell="A7" zoomScale="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -847,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -862,11 +884,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
@@ -879,11 +902,12 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -896,11 +920,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -913,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -930,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -947,9 +972,60 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1194,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1DD6FD-6B12-B642-8645-9450390C752E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="4">
-        <v>30300</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA89BDD-9D59-4781-A4A3-26CF4DE16AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7DB84-C041-4489-9BEE-533B77EF5BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1968" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>所属进程</t>
   </si>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>zpbTestDouble</t>
+  </si>
+  <si>
+    <t>Pay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -617,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -944,7 +948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -961,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -978,7 +982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -995,7 +999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -1027,6 +1031,26 @@
       </c>
       <c r="F21" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>404</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6078</v>
       </c>
     </row>
   </sheetData>
@@ -1270,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1DD6FD-6B12-B642-8645-9450390C752E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7DB84-C041-4489-9BEE-533B77EF5BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D00196-F930-4E9D-832A-EF5734D2D126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>所属进程</t>
   </si>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t>Pay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -783,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1033,23 +1041,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>404</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="4">
         <v>6078</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D00196-F930-4E9D-832A-EF5734D2D126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB22F0-29F0-4C67-AE18-313C3803EFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>所属进程</t>
   </si>
@@ -206,6 +206,9 @@
   <si>
     <t>Location</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionFromHttp</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1076,6 +1079,26 @@
       </c>
       <c r="G23" s="4">
         <v>6078</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>504</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6088</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB22F0-29F0-4C67-AE18-313C3803EFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20930D13-BED7-4CE0-9199-375451662A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>所属进程</t>
   </si>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>ActionFromHttp</t>
+  </si>
+  <si>
+    <t>zpbTestSnowForScale</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -902,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -920,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -938,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -953,11 +957,12 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -970,10 +975,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -987,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -1004,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -1021,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -1038,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -1055,49 +1060,66 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+    <row r="24" spans="2:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
         <v>404</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>6078</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
         <v>504</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>6088</v>
       </c>
     </row>
